--- a/teacher/assessment-template.xlsx
+++ b/teacher/assessment-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\repos\software-development-project-1.github.io\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC9E32-E7AB-4561-A280-52B098E80004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24BCE45-7097-41DB-B588-D56AA11DA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -99,15 +99,9 @@
     <t>Documentation has project description</t>
   </si>
   <si>
-    <t>Documentation has developer guide</t>
-  </si>
-  <si>
     <t>Documentation has data model</t>
   </si>
   <si>
-    <t>Documentation has architecture description</t>
-  </si>
-  <si>
     <t>Documentation has relevant links</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>Documentation has implementation technologies</t>
+  </si>
+  <si>
+    <t>Documentation has technical instructions</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -580,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -790,18 +790,18 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -867,7 +867,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>0</v>

--- a/teacher/assessment-template.xlsx
+++ b/teacher/assessment-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\repos\software-development-project-1.github.io\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24BCE45-7097-41DB-B588-D56AA11DA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CB99F-59F4-4A96-9A3E-0755F6F4E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Student name</t>
   </si>
   <si>
-    <t>Personal points</t>
-  </si>
-  <si>
-    <t>Total points</t>
-  </si>
-  <si>
     <t>Repository</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Documentation has technical instructions</t>
+  </si>
+  <si>
+    <t>Personal grade</t>
+  </si>
+  <si>
+    <t>Project grade</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,10 +563,8 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" customWidth="1"/>
     <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="8" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -577,42 +575,42 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -634,7 +632,6 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(G2:H2)</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -655,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -669,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -677,21 +674,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -713,7 +710,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -724,7 +721,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -735,7 +732,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -757,7 +754,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -768,7 +765,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -779,7 +776,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -790,7 +787,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,7 +798,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -812,7 +809,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -823,7 +820,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -834,7 +831,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -845,7 +842,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -867,7 +864,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -878,7 +875,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -889,7 +886,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -900,7 +897,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>0</v>
